--- a/PY19_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
+++ b/PY19_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
@@ -402,7 +402,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -445,14 +445,42 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,15 +494,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -487,35 +506,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,34 +531,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -587,15 +591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>761328</xdr:colOff>
+      <xdr:colOff>1278842</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>137832</xdr:rowOff>
+      <xdr:rowOff>118782</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -612,10 +616,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2495550" y="1076325"/>
-          <a:ext cx="789903" cy="728382"/>
+          <a:off x="2238375" y="1057275"/>
+          <a:ext cx="1564592" cy="728382"/>
           <a:chOff x="172" y="106"/>
-          <a:chExt cx="237" cy="104"/>
+          <a:chExt cx="229" cy="104"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -11500,7 +11504,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="370" y="106"/>
-            <a:ext cx="39" cy="52"/>
+            <a:ext cx="31" cy="34"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -22983,7 +22987,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -23048,16 +23052,16 @@
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="K5">
@@ -23066,38 +23070,38 @@
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -23109,7 +23113,7 @@
         <f>+K2</f>
         <v>1</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6" t="s">
@@ -23130,7 +23134,7 @@
         <f>+K3</f>
         <v>2</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10" t="s">
@@ -23169,13 +23173,13 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="48"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -23184,20 +23188,23 @@
       <c r="B13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="42"/>
-      <c r="G13" s="41"/>
+      <c r="G13" s="55">
+        <f>SUM(G12)</f>
+        <v>0</v>
+      </c>
       <c r="H13" s="42"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
@@ -23207,20 +23214,20 @@
       <c r="F14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="16" t="s">
         <v>20</v>
       </c>
@@ -23230,20 +23237,20 @@
       <c r="F15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="16" t="s">
         <v>21</v>
       </c>
@@ -23251,10 +23258,10 @@
       <c r="F16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="53"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="16" t="s">
         <v>21</v>
       </c>
@@ -23298,7 +23305,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="54"/>
+      <c r="G29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -23395,16 +23402,16 @@
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="K5">
@@ -23413,38 +23420,38 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -23456,7 +23463,7 @@
         <f>+K2</f>
         <v>1</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6" t="s">
@@ -23477,7 +23484,7 @@
         <f>+K3</f>
         <v>2</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10" t="s">
@@ -23516,13 +23523,13 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="48"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -23531,9 +23538,9 @@
       <c r="B13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="42"/>
       <c r="G13" s="41"/>
       <c r="H13" s="42"/>
@@ -23541,10 +23548,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
@@ -23554,20 +23561,20 @@
       <c r="F14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="16" t="s">
         <v>20</v>
       </c>
@@ -23577,20 +23584,20 @@
       <c r="F15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="16" t="s">
         <v>21</v>
       </c>
@@ -23598,10 +23605,10 @@
       <c r="F16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="53"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="16" t="s">
         <v>21</v>
       </c>
@@ -23645,7 +23652,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="54"/>
+      <c r="G29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
